--- a/bases/saida_xlsx_indices_diesel_e_gasolina_base.csv.xlsx
+++ b/bases/saida_xlsx_indices_diesel_e_gasolina_base.csv.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E421"/>
+  <dimension ref="A1:E424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7555,6 +7555,57 @@
         <v>99.39</v>
       </c>
     </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="2">
+        <v>43156</v>
+      </c>
+      <c r="B422">
+        <v>0</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+      <c r="D422">
+        <v>99.39</v>
+      </c>
+      <c r="E422">
+        <v>99.39</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+      <c r="D423">
+        <v>99.39</v>
+      </c>
+      <c r="E423">
+        <v>99.39</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="2">
+        <v>43158</v>
+      </c>
+      <c r="B424">
+        <v>0.1</v>
+      </c>
+      <c r="C424">
+        <v>0.6</v>
+      </c>
+      <c r="D424">
+        <v>99.48999999999999</v>
+      </c>
+      <c r="E424">
+        <v>99.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bases/saida_xlsx_indices_diesel_e_gasolina_base.csv.xlsx
+++ b/bases/saida_xlsx_indices_diesel_e_gasolina_base.csv.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E424"/>
+  <dimension ref="A1:E439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7606,6 +7606,261 @@
         <v>99.48999999999999</v>
       </c>
     </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+      <c r="D425">
+        <v>100.49</v>
+      </c>
+      <c r="E425">
+        <v>100.49</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B426">
+        <v>1.5</v>
+      </c>
+      <c r="C426">
+        <v>-1</v>
+      </c>
+      <c r="D426">
+        <v>102</v>
+      </c>
+      <c r="E426">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="2">
+        <v>43161</v>
+      </c>
+      <c r="B427">
+        <v>0.5</v>
+      </c>
+      <c r="C427">
+        <v>-2.9</v>
+      </c>
+      <c r="D427">
+        <v>102.51</v>
+      </c>
+      <c r="E427">
+        <v>102.51</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="2">
+        <v>43162</v>
+      </c>
+      <c r="B428">
+        <v>-1</v>
+      </c>
+      <c r="C428">
+        <v>-0.2</v>
+      </c>
+      <c r="D428">
+        <v>101.48</v>
+      </c>
+      <c r="E428">
+        <v>101.48</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="2">
+        <v>43163</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+      <c r="D429">
+        <v>101.48</v>
+      </c>
+      <c r="E429">
+        <v>101.48</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B430">
+        <v>0</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+      <c r="D430">
+        <v>101.48</v>
+      </c>
+      <c r="E430">
+        <v>101.48</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="2">
+        <v>43165</v>
+      </c>
+      <c r="B431">
+        <v>-0.7</v>
+      </c>
+      <c r="C431">
+        <v>0.2</v>
+      </c>
+      <c r="D431">
+        <v>100.77</v>
+      </c>
+      <c r="E431">
+        <v>100.77</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="2">
+        <v>43166</v>
+      </c>
+      <c r="B432">
+        <v>0.5</v>
+      </c>
+      <c r="C432">
+        <v>0.8</v>
+      </c>
+      <c r="D432">
+        <v>101.27</v>
+      </c>
+      <c r="E432">
+        <v>101.27</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="2">
+        <v>43167</v>
+      </c>
+      <c r="B433">
+        <v>-1.6</v>
+      </c>
+      <c r="C433">
+        <v>-0.6</v>
+      </c>
+      <c r="D433">
+        <v>99.65000000000001</v>
+      </c>
+      <c r="E433">
+        <v>99.65000000000001</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="2">
+        <v>43168</v>
+      </c>
+      <c r="B434">
+        <v>-1.4</v>
+      </c>
+      <c r="C434">
+        <v>-1.3</v>
+      </c>
+      <c r="D434">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="E434">
+        <v>98.26000000000001</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="2">
+        <v>43169</v>
+      </c>
+      <c r="B435">
+        <v>-0.7</v>
+      </c>
+      <c r="C435">
+        <v>-0.1</v>
+      </c>
+      <c r="D435">
+        <v>97.56999999999999</v>
+      </c>
+      <c r="E435">
+        <v>97.56999999999999</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="2">
+        <v>43170</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <v>97.56999999999999</v>
+      </c>
+      <c r="E436">
+        <v>97.56999999999999</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>97.56999999999999</v>
+      </c>
+      <c r="E437">
+        <v>97.56999999999999</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B438">
+        <v>1.7</v>
+      </c>
+      <c r="C438">
+        <v>1.6</v>
+      </c>
+      <c r="D438">
+        <v>99.23</v>
+      </c>
+      <c r="E438">
+        <v>99.23</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="2">
+        <v>43173</v>
+      </c>
+      <c r="B439">
+        <v>-0.5</v>
+      </c>
+      <c r="C439">
+        <v>-1.4</v>
+      </c>
+      <c r="D439">
+        <v>98.73</v>
+      </c>
+      <c r="E439">
+        <v>98.73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bases/saida_xlsx_indices_diesel_e_gasolina_base.csv.xlsx
+++ b/bases/saida_xlsx_indices_diesel_e_gasolina_base.csv.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E439"/>
+  <dimension ref="A1:E460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7861,6 +7861,363 @@
         <v>98.73</v>
       </c>
     </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="2">
+        <v>43174</v>
+      </c>
+      <c r="B440">
+        <v>-0.8</v>
+      </c>
+      <c r="C440">
+        <v>0.1</v>
+      </c>
+      <c r="D440">
+        <v>97.94</v>
+      </c>
+      <c r="E440">
+        <v>97.94</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="2">
+        <v>43175</v>
+      </c>
+      <c r="B441">
+        <v>1.5</v>
+      </c>
+      <c r="C441">
+        <v>0.8</v>
+      </c>
+      <c r="D441">
+        <v>99.41</v>
+      </c>
+      <c r="E441">
+        <v>99.41</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="2">
+        <v>43176</v>
+      </c>
+      <c r="B442">
+        <v>1.5</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="D442">
+        <v>100.9</v>
+      </c>
+      <c r="E442">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="2">
+        <v>43177</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+      <c r="D443">
+        <v>100.9</v>
+      </c>
+      <c r="E443">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="2">
+        <v>43178</v>
+      </c>
+      <c r="B444">
+        <v>0</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+      <c r="D444">
+        <v>100.9</v>
+      </c>
+      <c r="E444">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B445">
+        <v>1.1</v>
+      </c>
+      <c r="C445">
+        <v>1.2</v>
+      </c>
+      <c r="D445">
+        <v>102.01</v>
+      </c>
+      <c r="E445">
+        <v>102.01</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="2">
+        <v>43180</v>
+      </c>
+      <c r="B446">
+        <v>-0.5</v>
+      </c>
+      <c r="C446">
+        <v>-0.6</v>
+      </c>
+      <c r="D446">
+        <v>101.5</v>
+      </c>
+      <c r="E446">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="2">
+        <v>43181</v>
+      </c>
+      <c r="B447">
+        <v>1.8</v>
+      </c>
+      <c r="C447">
+        <v>2.4</v>
+      </c>
+      <c r="D447">
+        <v>103.33</v>
+      </c>
+      <c r="E447">
+        <v>103.33</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="2">
+        <v>43182</v>
+      </c>
+      <c r="B448">
+        <v>0.9</v>
+      </c>
+      <c r="C448">
+        <v>2.1</v>
+      </c>
+      <c r="D448">
+        <v>104.26</v>
+      </c>
+      <c r="E448">
+        <v>104.26</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="2">
+        <v>43183</v>
+      </c>
+      <c r="B449">
+        <v>0.2</v>
+      </c>
+      <c r="C449">
+        <v>-0.5</v>
+      </c>
+      <c r="D449">
+        <v>104.47</v>
+      </c>
+      <c r="E449">
+        <v>104.47</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="2">
+        <v>43184</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+      <c r="D450">
+        <v>104.47</v>
+      </c>
+      <c r="E450">
+        <v>104.47</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="2">
+        <v>43185</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+      <c r="D451">
+        <v>104.47</v>
+      </c>
+      <c r="E451">
+        <v>104.47</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="2">
+        <v>43186</v>
+      </c>
+      <c r="B452">
+        <v>0.8</v>
+      </c>
+      <c r="C452">
+        <v>1.2</v>
+      </c>
+      <c r="D452">
+        <v>105.3</v>
+      </c>
+      <c r="E452">
+        <v>105.3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="2">
+        <v>43187</v>
+      </c>
+      <c r="B453">
+        <v>0.5</v>
+      </c>
+      <c r="C453">
+        <v>-0.1</v>
+      </c>
+      <c r="D453">
+        <v>105.83</v>
+      </c>
+      <c r="E453">
+        <v>105.83</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="2">
+        <v>43188</v>
+      </c>
+      <c r="B454">
+        <v>0.8</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454">
+        <v>106.68</v>
+      </c>
+      <c r="E454">
+        <v>106.68</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+      <c r="D455">
+        <v>106.68</v>
+      </c>
+      <c r="E455">
+        <v>106.68</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="2">
+        <v>43190</v>
+      </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="D456">
+        <v>106.68</v>
+      </c>
+      <c r="E456">
+        <v>106.68</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="2">
+        <v>43191</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="D457">
+        <v>106.68</v>
+      </c>
+      <c r="E457">
+        <v>106.68</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="2">
+        <v>43192</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="D458">
+        <v>106.68</v>
+      </c>
+      <c r="E458">
+        <v>106.68</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="2">
+        <v>43193</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>-0.3</v>
+      </c>
+      <c r="D459">
+        <v>106.68</v>
+      </c>
+      <c r="E459">
+        <v>106.68</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="2">
+        <v>43194</v>
+      </c>
+      <c r="B460">
+        <v>-1.2</v>
+      </c>
+      <c r="C460">
+        <v>-1.4</v>
+      </c>
+      <c r="D460">
+        <v>105.4</v>
+      </c>
+      <c r="E460">
+        <v>105.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bases/saida_xlsx_indices_diesel_e_gasolina_base.csv.xlsx
+++ b/bases/saida_xlsx_indices_diesel_e_gasolina_base.csv.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E460"/>
+  <dimension ref="A1:E495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8218,6 +8218,601 @@
         <v>105.4</v>
       </c>
     </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="2">
+        <v>43195</v>
+      </c>
+      <c r="B461">
+        <v>-0.8</v>
+      </c>
+      <c r="C461">
+        <v>0.6</v>
+      </c>
+      <c r="D461">
+        <v>104.55</v>
+      </c>
+      <c r="E461">
+        <v>104.55</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="2">
+        <v>43196</v>
+      </c>
+      <c r="B462">
+        <v>0.2</v>
+      </c>
+      <c r="C462">
+        <v>0.9</v>
+      </c>
+      <c r="D462">
+        <v>104.76</v>
+      </c>
+      <c r="E462">
+        <v>104.76</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="2">
+        <v>43197</v>
+      </c>
+      <c r="B463">
+        <v>-0.1</v>
+      </c>
+      <c r="C463">
+        <v>-1.2</v>
+      </c>
+      <c r="D463">
+        <v>104.66</v>
+      </c>
+      <c r="E463">
+        <v>104.66</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="2">
+        <v>43198</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+      <c r="D464">
+        <v>104.66</v>
+      </c>
+      <c r="E464">
+        <v>104.66</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="2">
+        <v>43199</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
+      <c r="D465">
+        <v>104.66</v>
+      </c>
+      <c r="E465">
+        <v>104.66</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="2">
+        <v>43200</v>
+      </c>
+      <c r="B466">
+        <v>-0</v>
+      </c>
+      <c r="C466">
+        <v>0.4</v>
+      </c>
+      <c r="D466">
+        <v>104.66</v>
+      </c>
+      <c r="E466">
+        <v>104.66</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="2">
+        <v>43201</v>
+      </c>
+      <c r="B467">
+        <v>2.4</v>
+      </c>
+      <c r="C467">
+        <v>2.3</v>
+      </c>
+      <c r="D467">
+        <v>107.17</v>
+      </c>
+      <c r="E467">
+        <v>107.17</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="2">
+        <v>43202</v>
+      </c>
+      <c r="B468">
+        <v>0.8</v>
+      </c>
+      <c r="C468">
+        <v>2</v>
+      </c>
+      <c r="D468">
+        <v>108.03</v>
+      </c>
+      <c r="E468">
+        <v>108.03</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="2">
+        <v>43203</v>
+      </c>
+      <c r="B469">
+        <v>0.9</v>
+      </c>
+      <c r="C469">
+        <v>1.7</v>
+      </c>
+      <c r="D469">
+        <v>109</v>
+      </c>
+      <c r="E469">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="2">
+        <v>43204</v>
+      </c>
+      <c r="B470">
+        <v>-0.3</v>
+      </c>
+      <c r="C470">
+        <v>-0.2</v>
+      </c>
+      <c r="D470">
+        <v>108.67</v>
+      </c>
+      <c r="E470">
+        <v>108.67</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="2">
+        <v>43205</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471">
+        <v>108.67</v>
+      </c>
+      <c r="E471">
+        <v>108.67</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="2">
+        <v>43206</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472">
+        <v>108.67</v>
+      </c>
+      <c r="E472">
+        <v>108.67</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="2">
+        <v>43207</v>
+      </c>
+      <c r="B473">
+        <v>0.9</v>
+      </c>
+      <c r="C473">
+        <v>0.8</v>
+      </c>
+      <c r="D473">
+        <v>109.65</v>
+      </c>
+      <c r="E473">
+        <v>109.65</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="2">
+        <v>43208</v>
+      </c>
+      <c r="B474">
+        <v>0.5</v>
+      </c>
+      <c r="C474">
+        <v>-0.4</v>
+      </c>
+      <c r="D474">
+        <v>110.2</v>
+      </c>
+      <c r="E474">
+        <v>110.2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="2">
+        <v>43209</v>
+      </c>
+      <c r="B475">
+        <v>-0.7</v>
+      </c>
+      <c r="C475">
+        <v>-0.8</v>
+      </c>
+      <c r="D475">
+        <v>109.43</v>
+      </c>
+      <c r="E475">
+        <v>109.43</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="2">
+        <v>43210</v>
+      </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
+      <c r="C476">
+        <v>0.4</v>
+      </c>
+      <c r="D476">
+        <v>109.43</v>
+      </c>
+      <c r="E476">
+        <v>109.43</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="2">
+        <v>43211</v>
+      </c>
+      <c r="B477">
+        <v>1.1</v>
+      </c>
+      <c r="C477">
+        <v>1.1</v>
+      </c>
+      <c r="D477">
+        <v>110.63</v>
+      </c>
+      <c r="E477">
+        <v>110.63</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="2">
+        <v>43212</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478">
+        <v>110.63</v>
+      </c>
+      <c r="E478">
+        <v>110.63</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="2">
+        <v>43213</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479">
+        <v>110.63</v>
+      </c>
+      <c r="E479">
+        <v>110.63</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="2">
+        <v>43214</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480">
+        <v>110.63</v>
+      </c>
+      <c r="E480">
+        <v>110.63</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="2">
+        <v>43215</v>
+      </c>
+      <c r="B481">
+        <v>1.9</v>
+      </c>
+      <c r="C481">
+        <v>2.6</v>
+      </c>
+      <c r="D481">
+        <v>112.73</v>
+      </c>
+      <c r="E481">
+        <v>112.73</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="2">
+        <v>43216</v>
+      </c>
+      <c r="B482">
+        <v>1.4</v>
+      </c>
+      <c r="C482">
+        <v>0.4</v>
+      </c>
+      <c r="D482">
+        <v>114.31</v>
+      </c>
+      <c r="E482">
+        <v>114.31</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="2">
+        <v>43217</v>
+      </c>
+      <c r="B483">
+        <v>0</v>
+      </c>
+      <c r="C483">
+        <v>1.4</v>
+      </c>
+      <c r="D483">
+        <v>114.31</v>
+      </c>
+      <c r="E483">
+        <v>114.31</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="2">
+        <v>43218</v>
+      </c>
+      <c r="B484">
+        <v>0</v>
+      </c>
+      <c r="C484">
+        <v>0.8</v>
+      </c>
+      <c r="D484">
+        <v>114.31</v>
+      </c>
+      <c r="E484">
+        <v>114.31</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="2">
+        <v>43219</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
+      <c r="D485">
+        <v>114.31</v>
+      </c>
+      <c r="E485">
+        <v>114.31</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="2">
+        <v>43220</v>
+      </c>
+      <c r="B486">
+        <v>0</v>
+      </c>
+      <c r="C486">
+        <v>0</v>
+      </c>
+      <c r="D486">
+        <v>114.31</v>
+      </c>
+      <c r="E486">
+        <v>114.31</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="2">
+        <v>43221</v>
+      </c>
+      <c r="B487">
+        <v>0.5</v>
+      </c>
+      <c r="C487">
+        <v>-1.1</v>
+      </c>
+      <c r="D487">
+        <v>114.88</v>
+      </c>
+      <c r="E487">
+        <v>114.88</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="2">
+        <v>43222</v>
+      </c>
+      <c r="B488">
+        <v>0</v>
+      </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+      <c r="D488">
+        <v>114.88</v>
+      </c>
+      <c r="E488">
+        <v>114.88</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="2">
+        <v>43223</v>
+      </c>
+      <c r="B489">
+        <v>-1</v>
+      </c>
+      <c r="C489">
+        <v>-1.6</v>
+      </c>
+      <c r="D489">
+        <v>113.73</v>
+      </c>
+      <c r="E489">
+        <v>113.73</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="2">
+        <v>43224</v>
+      </c>
+      <c r="B490">
+        <v>1.1</v>
+      </c>
+      <c r="C490">
+        <v>2.5</v>
+      </c>
+      <c r="D490">
+        <v>114.99</v>
+      </c>
+      <c r="E490">
+        <v>114.99</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="2">
+        <v>43225</v>
+      </c>
+      <c r="B491">
+        <v>0.5</v>
+      </c>
+      <c r="C491">
+        <v>-0.2</v>
+      </c>
+      <c r="D491">
+        <v>115.56</v>
+      </c>
+      <c r="E491">
+        <v>115.56</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="2">
+        <v>43226</v>
+      </c>
+      <c r="B492">
+        <v>0</v>
+      </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+      <c r="D492">
+        <v>115.56</v>
+      </c>
+      <c r="E492">
+        <v>115.56</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="2">
+        <v>43227</v>
+      </c>
+      <c r="B493">
+        <v>0</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+      <c r="D493">
+        <v>115.56</v>
+      </c>
+      <c r="E493">
+        <v>115.56</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="2">
+        <v>43228</v>
+      </c>
+      <c r="B494">
+        <v>1.2</v>
+      </c>
+      <c r="C494">
+        <v>1.3</v>
+      </c>
+      <c r="D494">
+        <v>116.95</v>
+      </c>
+      <c r="E494">
+        <v>116.95</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="2">
+        <v>43229</v>
+      </c>
+      <c r="B495">
+        <v>0.6</v>
+      </c>
+      <c r="C495">
+        <v>2.1</v>
+      </c>
+      <c r="D495">
+        <v>117.65</v>
+      </c>
+      <c r="E495">
+        <v>117.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bases/saida_xlsx_indices_diesel_e_gasolina_base.csv.xlsx
+++ b/bases/saida_xlsx_indices_diesel_e_gasolina_base.csv.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E495"/>
+  <dimension ref="A1:E501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8813,6 +8813,108 @@
         <v>117.65</v>
       </c>
     </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="2">
+        <v>43230</v>
+      </c>
+      <c r="B496">
+        <v>0</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+      <c r="D496">
+        <v>117.65</v>
+      </c>
+      <c r="E496">
+        <v>117.65</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="2">
+        <v>43231</v>
+      </c>
+      <c r="B497">
+        <v>2.1</v>
+      </c>
+      <c r="C497">
+        <v>2.9</v>
+      </c>
+      <c r="D497">
+        <v>120.12</v>
+      </c>
+      <c r="E497">
+        <v>120.12</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="2">
+        <v>43232</v>
+      </c>
+      <c r="B498">
+        <v>2.2</v>
+      </c>
+      <c r="C498">
+        <v>-0.9</v>
+      </c>
+      <c r="D498">
+        <v>122.76</v>
+      </c>
+      <c r="E498">
+        <v>122.76</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="2">
+        <v>43233</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+      <c r="C499">
+        <v>0</v>
+      </c>
+      <c r="D499">
+        <v>122.76</v>
+      </c>
+      <c r="E499">
+        <v>122.76</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="2">
+        <v>43234</v>
+      </c>
+      <c r="B500">
+        <v>0</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+      <c r="D500">
+        <v>122.76</v>
+      </c>
+      <c r="E500">
+        <v>122.76</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B501">
+        <v>0</v>
+      </c>
+      <c r="C501">
+        <v>0.3</v>
+      </c>
+      <c r="D501">
+        <v>122.76</v>
+      </c>
+      <c r="E501">
+        <v>122.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bases/saida_xlsx_indices_diesel_e_gasolina_base.csv.xlsx
+++ b/bases/saida_xlsx_indices_diesel_e_gasolina_base.csv.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E501"/>
+  <dimension ref="A1:E524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8915,6 +8915,397 @@
         <v>122.76</v>
       </c>
     </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="2">
+        <v>43236</v>
+      </c>
+      <c r="B502">
+        <v>1.8</v>
+      </c>
+      <c r="C502">
+        <v>2</v>
+      </c>
+      <c r="D502">
+        <v>124.97</v>
+      </c>
+      <c r="E502">
+        <v>124.97</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="2">
+        <v>43237</v>
+      </c>
+      <c r="B503">
+        <v>1.8</v>
+      </c>
+      <c r="C503">
+        <v>1.8</v>
+      </c>
+      <c r="D503">
+        <v>127.22</v>
+      </c>
+      <c r="E503">
+        <v>127.22</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="2">
+        <v>43238</v>
+      </c>
+      <c r="B504">
+        <v>1.8</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504">
+        <v>129.51</v>
+      </c>
+      <c r="E504">
+        <v>129.51</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="2">
+        <v>43239</v>
+      </c>
+      <c r="B505">
+        <v>1.3</v>
+      </c>
+      <c r="C505">
+        <v>0.8</v>
+      </c>
+      <c r="D505">
+        <v>131.2</v>
+      </c>
+      <c r="E505">
+        <v>131.2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="2">
+        <v>43240</v>
+      </c>
+      <c r="B506">
+        <v>0</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+      <c r="D506">
+        <v>131.2</v>
+      </c>
+      <c r="E506">
+        <v>131.2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" s="2">
+        <v>43241</v>
+      </c>
+      <c r="B507">
+        <v>0</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="D507">
+        <v>131.2</v>
+      </c>
+      <c r="E507">
+        <v>131.2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="2">
+        <v>43242</v>
+      </c>
+      <c r="B508">
+        <v>0.9</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+      <c r="D508">
+        <v>132.38</v>
+      </c>
+      <c r="E508">
+        <v>132.38</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="2">
+        <v>43243</v>
+      </c>
+      <c r="B509">
+        <v>-2.1</v>
+      </c>
+      <c r="C509">
+        <v>-1.5</v>
+      </c>
+      <c r="D509">
+        <v>129.6</v>
+      </c>
+      <c r="E509">
+        <v>129.6</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="2">
+        <v>43244</v>
+      </c>
+      <c r="B510">
+        <v>-0.6</v>
+      </c>
+      <c r="C510">
+        <v>-10</v>
+      </c>
+      <c r="D510">
+        <v>128.82</v>
+      </c>
+      <c r="E510">
+        <v>128.82</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" s="2">
+        <v>43245</v>
+      </c>
+      <c r="B511">
+        <v>-0.7</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+      <c r="D511">
+        <v>127.92</v>
+      </c>
+      <c r="E511">
+        <v>127.92</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="2">
+        <v>43246</v>
+      </c>
+      <c r="B512">
+        <v>-0.3</v>
+      </c>
+      <c r="C512">
+        <v>0</v>
+      </c>
+      <c r="D512">
+        <v>127.53</v>
+      </c>
+      <c r="E512">
+        <v>127.53</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="2">
+        <v>43247</v>
+      </c>
+      <c r="B513">
+        <v>0</v>
+      </c>
+      <c r="C513">
+        <v>0</v>
+      </c>
+      <c r="D513">
+        <v>127.53</v>
+      </c>
+      <c r="E513">
+        <v>127.53</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="2">
+        <v>43248</v>
+      </c>
+      <c r="B514">
+        <v>0</v>
+      </c>
+      <c r="C514">
+        <v>0</v>
+      </c>
+      <c r="D514">
+        <v>127.53</v>
+      </c>
+      <c r="E514">
+        <v>127.53</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="2">
+        <v>43249</v>
+      </c>
+      <c r="B515">
+        <v>-2.8</v>
+      </c>
+      <c r="C515">
+        <v>0</v>
+      </c>
+      <c r="D515">
+        <v>123.96</v>
+      </c>
+      <c r="E515">
+        <v>123.96</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" s="2">
+        <v>43250</v>
+      </c>
+      <c r="B516">
+        <v>0</v>
+      </c>
+      <c r="C516">
+        <v>0</v>
+      </c>
+      <c r="D516">
+        <v>123.96</v>
+      </c>
+      <c r="E516">
+        <v>123.96</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="2">
+        <v>43251</v>
+      </c>
+      <c r="B517">
+        <v>0.7</v>
+      </c>
+      <c r="C517">
+        <v>0</v>
+      </c>
+      <c r="D517">
+        <v>124.83</v>
+      </c>
+      <c r="E517">
+        <v>124.83</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B518">
+        <v>0</v>
+      </c>
+      <c r="C518">
+        <v>-3.3</v>
+      </c>
+      <c r="D518">
+        <v>124.83</v>
+      </c>
+      <c r="E518">
+        <v>124.83</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" s="2">
+        <v>43253</v>
+      </c>
+      <c r="B519">
+        <v>2.2</v>
+      </c>
+      <c r="C519">
+        <v>0</v>
+      </c>
+      <c r="D519">
+        <v>127.58</v>
+      </c>
+      <c r="E519">
+        <v>127.58</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="A520" s="2">
+        <v>43254</v>
+      </c>
+      <c r="B520">
+        <v>0</v>
+      </c>
+      <c r="C520">
+        <v>0</v>
+      </c>
+      <c r="D520">
+        <v>127.58</v>
+      </c>
+      <c r="E520">
+        <v>127.58</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" s="2">
+        <v>43255</v>
+      </c>
+      <c r="B521">
+        <v>0</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+      <c r="D521">
+        <v>127.58</v>
+      </c>
+      <c r="E521">
+        <v>127.58</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" s="2">
+        <v>43256</v>
+      </c>
+      <c r="B522">
+        <v>-0.7</v>
+      </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
+      <c r="D522">
+        <v>126.68</v>
+      </c>
+      <c r="E522">
+        <v>126.68</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" s="2">
+        <v>43257</v>
+      </c>
+      <c r="B523">
+        <v>-1.4</v>
+      </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
+      <c r="D523">
+        <v>124.91</v>
+      </c>
+      <c r="E523">
+        <v>124.91</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" s="2">
+        <v>43258</v>
+      </c>
+      <c r="B524">
+        <v>-0.5</v>
+      </c>
+      <c r="C524">
+        <v>0</v>
+      </c>
+      <c r="D524">
+        <v>124.28</v>
+      </c>
+      <c r="E524">
+        <v>124.28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bases/saida_xlsx_indices_diesel_e_gasolina_base.csv.xlsx
+++ b/bases/saida_xlsx_indices_diesel_e_gasolina_base.csv.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E501"/>
+  <dimension ref="A1:E511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8915,6 +8915,176 @@
         <v>122.76</v>
       </c>
     </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="2">
+        <v>43236</v>
+      </c>
+      <c r="B502">
+        <v>1.8</v>
+      </c>
+      <c r="C502">
+        <v>2</v>
+      </c>
+      <c r="D502">
+        <v>124.97</v>
+      </c>
+      <c r="E502">
+        <v>124.97</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="2">
+        <v>43237</v>
+      </c>
+      <c r="B503">
+        <v>1.8</v>
+      </c>
+      <c r="C503">
+        <v>1.8</v>
+      </c>
+      <c r="D503">
+        <v>127.22</v>
+      </c>
+      <c r="E503">
+        <v>127.22</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="2">
+        <v>43238</v>
+      </c>
+      <c r="B504">
+        <v>1.8</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504">
+        <v>129.51</v>
+      </c>
+      <c r="E504">
+        <v>129.51</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="2">
+        <v>43239</v>
+      </c>
+      <c r="B505">
+        <v>1.3</v>
+      </c>
+      <c r="C505">
+        <v>0.8</v>
+      </c>
+      <c r="D505">
+        <v>131.2</v>
+      </c>
+      <c r="E505">
+        <v>131.2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="2">
+        <v>43240</v>
+      </c>
+      <c r="B506">
+        <v>0</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+      <c r="D506">
+        <v>131.2</v>
+      </c>
+      <c r="E506">
+        <v>131.2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" s="2">
+        <v>43241</v>
+      </c>
+      <c r="B507">
+        <v>0</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="D507">
+        <v>131.2</v>
+      </c>
+      <c r="E507">
+        <v>131.2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="2">
+        <v>43242</v>
+      </c>
+      <c r="B508">
+        <v>0.9</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+      <c r="D508">
+        <v>132.38</v>
+      </c>
+      <c r="E508">
+        <v>132.38</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="2">
+        <v>43243</v>
+      </c>
+      <c r="B509">
+        <v>-2.1</v>
+      </c>
+      <c r="C509">
+        <v>-1.5</v>
+      </c>
+      <c r="D509">
+        <v>129.6</v>
+      </c>
+      <c r="E509">
+        <v>129.6</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="2">
+        <v>43244</v>
+      </c>
+      <c r="B510">
+        <v>-0.6</v>
+      </c>
+      <c r="C510">
+        <v>-10</v>
+      </c>
+      <c r="D510">
+        <v>128.82</v>
+      </c>
+      <c r="E510">
+        <v>128.82</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" s="2">
+        <v>43245</v>
+      </c>
+      <c r="B511">
+        <v>-0.7</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+      <c r="D511">
+        <v>127.92</v>
+      </c>
+      <c r="E511">
+        <v>127.92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
